--- a/capstone_api.xlsx
+++ b/capstone_api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\capstone\capstone2025_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9FEDA8-7BE7-4CC5-B3D7-9EBAC014F0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487771F4-9D58-4447-8026-DAA0B8F88F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="참조" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,24 +176,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 필터 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>패키지 검색 결과 LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkg_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwer1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 내 리뷰 LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reivew_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 리뷰 LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 검색 옵션에 따른 결과 LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 검색 API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인 API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 유저 API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/main/banners</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/main/packages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/main/places</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/filters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/signup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 필터 최대 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 필터 최소 가격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1 (패키지 고유 id): {
 		name: "싱가포르 3박 4일",
+type: 1,
 		price: 50000,
 		start_date: "2025-02-21",
 		end_date: "2025-02-25",
@@ -209,67 +322,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkg_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 패키지 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qwer1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4) 내 리뷰 LIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reivew_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 리뷰 LIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	1 (패키지 고유 id): {
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.naver.com/test/image.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image (*선택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday (*선택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/reviewList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 내 리뷰 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/reviewAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 패키지 번호 or 내 리뷰 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"바다가 이뻐요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) 내 리뷰 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 고유 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1 (리뷰 고유 id): {
+id: "패키지 ID",
 		name: "싱가포르 3박 4일",
 		price: 50000,
 		start_date: "2025-02-21",
@@ -289,63 +411,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2) 검색 옵션에 따른 결과 LIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5) 내 저장에 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 검색 API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 메인 API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 유저 API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/main/banners</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/main/packages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/main/places</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search/filters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search/results</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/signup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/reviews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/favorite</t>
+    <t>/search/reviewRemove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) 내 여행 LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/favoriteList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 내 여행 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/favoriteAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) 내 여행 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/favoriteRemove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패키지 리스트 or 내 리뷰 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1 (내여행 고유 id): {
+id: "패키지 ID",
+		name: "싱가포르 3박 4일",
+type: 1,
+		price: 50000,
+		start_date: "2025-02-21",
+		end_date: "2025-02-25",
+		country: "singapore",
+	},
+	2: {
+		// 동일한 구조
+	},
+	3: {
+		// 동일한 구조
+	},
+	....
+},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorite_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내여행 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내여행 고유 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"package" or "mine"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +576,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -614,7 +789,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,8 +797,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,7 +877,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -711,23 +889,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1038,15 +1229,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98929B5-A138-46F3-90E6-09E74B551848}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="6" customWidth="1"/>
     <col min="4" max="4" width="51.875" style="1" customWidth="1"/>
@@ -1055,13 +1246,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1076,16 +1267,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1111,12 +1302,12 @@
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="12"/>
@@ -1186,12 +1377,12 @@
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="12"/>
@@ -1261,12 +1452,12 @@
         <v>6</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="12"/>
@@ -1274,7 +1465,7 @@
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1291,7 +1482,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
@@ -1306,7 +1497,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1334,7 +1525,7 @@
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,12 +1551,12 @@
         <v>6</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="12"/>
@@ -1414,7 +1605,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
@@ -1435,14 +1626,14 @@
         <v>6</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -1456,55 +1647,66 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="19" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="21">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="202.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="B46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="21">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="189" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="E46" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
@@ -1515,381 +1717,770 @@
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+      <c r="B53" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="E54" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="35">
+        <v>36005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E61" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="C62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="8" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="22" t="s">
+      <c r="D63" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="21" t="s">
+      <c r="D75" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="243" x14ac:dyDescent="0.3">
+      <c r="A77" s="28"/>
+      <c r="B77" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="C77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="25"/>
+      <c r="B83" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B85" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C85" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D85" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E85" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="26" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A90" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="16"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="229.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="28"/>
+      <c r="B98" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="E98" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E102" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="25"/>
+      <c r="B104" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E104" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="25"/>
+      <c r="B105" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E105" s="36">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="25"/>
+      <c r="B106" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E106" s="36">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
+      <c r="C113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B114" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C114" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D114" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E114" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="16"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="229.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
-      <c r="B74" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="23">
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A94:C94"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A8:C8"/>
@@ -1898,9 +2489,17 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A80:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E55" r:id="rId1" xr:uid="{55A34271-33C8-4C05-936A-5C2924F54CDA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/capstone_api.xlsx
+++ b/capstone_api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\capstone\capstone2025_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487771F4-9D58-4447-8026-DAA0B8F88F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E69B450-5C6B-442D-BC1D-326EEF5F5AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7125" yWindow="2805" windowWidth="21675" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="참조" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="113">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,8 +390,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/search/reviewRemove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) 내 여행 LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 내 여행 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) 내 여행 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패키지 리스트 or 내 리뷰 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내여행 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내여행 고유 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"package" or "mine"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 내 여행 도시 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/myTripList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/myTripAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/myTripAddPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/myTripRemove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">	1 (리뷰 고유 id): {
-id: "패키지 ID",
+id: "패키지 or 내여행 ID",
 		name: "싱가포르 3박 4일",
 		price: 50000,
 		start_date: "2025-02-21",
@@ -411,43 +503,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/search/reviewRemove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6) 내 여행 LIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/favoriteList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5) 내 여행 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search/favoriteAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6) 내 여행 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search/favoriteRemove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패키지 리스트 or 내 리뷰 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
+    <t>trip_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,6 +515,10 @@
 		start_date: "2025-02-21",
 		end_date: "2025-02-25",
 		country: "singapore",
+place_list: {1 (내 장소 고유 id) : {
+name: "서울구경", place: "seoul", "reg_date": "2025-02-21"
+}
+},
 	},
 	2: {
 		// 동일한 구조
@@ -471,47 +531,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>favorite_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singapore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출발날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내여행 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내여행 고유 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"package" or "mine"</t>
+    <t>reg_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,15 +900,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -902,15 +931,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1229,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98929B5-A138-46F3-90E6-09E74B551848}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1246,13 +1266,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1267,12 +1287,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1280,11 +1300,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
@@ -1315,7 +1335,7 @@
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1332,7 +1352,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1355,11 +1375,11 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
@@ -1390,7 +1410,7 @@
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -1407,7 +1427,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1430,11 +1450,11 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
@@ -1465,7 +1485,7 @@
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1482,7 +1502,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
@@ -1497,7 +1517,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1529,11 +1549,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
@@ -1564,7 +1584,7 @@
       <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -1581,7 +1601,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="7" t="s">
         <v>31</v>
       </c>
@@ -1604,11 +1624,11 @@
       <c r="C38" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
@@ -1677,7 +1697,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -1694,7 +1714,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="202.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="7" t="s">
         <v>36</v>
       </c>
@@ -1726,11 +1746,11 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
@@ -1794,7 +1814,7 @@
       <c r="D55" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="26" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1809,7 +1829,7 @@
       <c r="D56" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="27">
         <v>36005</v>
       </c>
     </row>
@@ -1839,11 +1859,11 @@
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
@@ -1922,11 +1942,11 @@
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
@@ -1982,11 +2002,11 @@
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
@@ -2012,20 +2032,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B76" s="11" t="s">
@@ -2042,7 +2062,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="243" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="7" t="s">
         <v>50</v>
       </c>
@@ -2053,7 +2073,7 @@
         <v>51</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2065,11 +2085,11 @@
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
@@ -2155,11 +2175,11 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
@@ -2180,9 +2200,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>41</v>
@@ -2215,11 +2235,11 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
+      <c r="A94" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
@@ -2242,7 +2262,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="12"/>
@@ -2250,7 +2270,7 @@
       <c r="E96" s="16"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="27" t="s">
+      <c r="A97" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -2266,10 +2286,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="229.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="28"/>
+    <row r="98" spans="1:5" ht="297" x14ac:dyDescent="0.3">
+      <c r="A98" s="30"/>
       <c r="B98" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>11</v>
@@ -2278,7 +2298,7 @@
         <v>51</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2290,11 +2310,11 @@
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="A101" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
@@ -2317,16 +2337,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E103" s="22" t="s">
         <v>80</v>
@@ -2350,46 +2370,46 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="25"/>
       <c r="B105" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E105" s="36">
+      <c r="D105" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E105" s="28">
         <v>45797</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="25"/>
       <c r="B106" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E106" s="36">
+      <c r="D106" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="28">
         <v>45802</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="18"/>
       <c r="B107" s="19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2410,11 +2430,11 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
+      <c r="A111" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
@@ -2437,7 +2457,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>41</v>
@@ -2446,36 +2466,126 @@
         <v>7</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E113" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="25"/>
+      <c r="B114" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E114" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="25"/>
+      <c r="B115" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E115" s="28">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="24" t="s">
+      <c r="B116" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C116" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="D116" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="24" t="s">
+      <c r="E116" s="24" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A94:C94"/>
+  <mergeCells count="24">
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A80:C80"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A4:D4"/>
@@ -2489,11 +2599,12 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A111:C111"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/capstone_api.xlsx
+++ b/capstone_api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\capstone\capstone2025_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E69B450-5C6B-442D-BC1D-326EEF5F5AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84372208-3BF2-4887-BBFB-481CCE0514A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="2805" windowWidth="21675" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8430" yWindow="2820" windowWidth="21675" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="참조" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="140">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -532,6 +532,126 @@
   </si>
   <si>
     <t>reg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) AI 프롬프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/askAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤지컬,콘서트,스포츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도쿄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프롬프트 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도쿄는 어쩌구 저쩌구 이뻐요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 항공 / 숙소 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/moves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 타입 (항공 / 숙소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flight / lodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+		id: "고유 ID",
+place: 서울,
+		price: 50000,
+		date: "2025-02-21",
+		name: "서울항공"
+	},
+	2: {
+		// 동일한 구조
+	},
+	3: {
+		// 동일한 구조
+	},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) 내 리뷰 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/reviewModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7) 내 여행 도시 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/myTripRemovePlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 장소 고유 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,6 +1038,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,6 +1060,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98929B5-A138-46F3-90E6-09E74B551848}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1266,13 +1398,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1287,12 +1419,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1300,11 +1432,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
@@ -1335,7 +1467,7 @@
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1352,7 +1484,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1375,11 +1507,11 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
@@ -1410,7 +1542,7 @@
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -1427,7 +1559,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1450,11 +1582,11 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
@@ -1485,7 +1617,7 @@
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1502,7 +1634,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
@@ -1517,7 +1649,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1549,11 +1681,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
@@ -1584,7 +1716,7 @@
       <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -1601,7 +1733,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="7" t="s">
         <v>31</v>
       </c>
@@ -1624,11 +1756,11 @@
       <c r="C38" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
@@ -1697,7 +1829,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -1714,7 +1846,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="202.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="7" t="s">
         <v>36</v>
       </c>
@@ -1732,774 +1864,785 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
+      <c r="A50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="A51" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="40">
+        <v>45798</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>38</v>
+      <c r="A52" s="25"/>
+      <c r="B52" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="27">
+        <v>45802</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>45</v>
+      <c r="D53" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="19" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>46</v>
+        <v>120</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="A55" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="34"/>
+      <c r="B56" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="27">
-        <v>36005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>38</v>
+      <c r="D61" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>45</v>
+      <c r="D62" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
       <c r="B63" s="19" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="27">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="34"/>
+      <c r="B65" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="25"/>
+      <c r="B72" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E72" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="25"/>
+      <c r="B73" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" s="27">
+        <v>36005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B75" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C75" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D75" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="E75" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="31" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="18"/>
+      <c r="B81" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="16"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
+      <c r="B87" s="10"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="16"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B88" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C88" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D88" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E88" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="31" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B92" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C93" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D93" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E93" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="29" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B94" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D94" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E94" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="243" x14ac:dyDescent="0.3">
-      <c r="A77" s="30"/>
-      <c r="B77" s="7" t="s">
+    <row r="95" spans="1:5" ht="243" x14ac:dyDescent="0.3">
+      <c r="A95" s="30"/>
+      <c r="B95" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D95" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E95" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="31" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="17" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B100" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D100" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E100" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="25"/>
-      <c r="B83" s="19" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="25"/>
+      <c r="B101" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D101" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E101" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D102" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E102" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B103" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C103" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D103" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E103" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B114" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C114" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E114" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="17" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C115" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D115" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E115" s="22" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="16"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="297" x14ac:dyDescent="0.3">
-      <c r="A98" s="30"/>
-      <c r="B98" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="25"/>
-      <c r="B104" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E104" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="25"/>
-      <c r="B105" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E105" s="28">
-        <v>45797</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="25"/>
-      <c r="B106" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E106" s="28">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E107" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="25"/>
-      <c r="B114" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E114" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="25"/>
-      <c r="B115" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E115" s="28">
-        <v>45797</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2519,78 +2662,418 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="31" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B121" s="10"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="16"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="297" x14ac:dyDescent="0.3">
+      <c r="A123" s="30"/>
+      <c r="B123" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="25"/>
+      <c r="B129" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E129" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="25"/>
+      <c r="B130" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E130" s="28">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="25"/>
+      <c r="B131" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131" s="28">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="18"/>
+      <c r="B132" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E132" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="25"/>
+      <c r="B139" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E139" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="25"/>
+      <c r="B140" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E140" s="28">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B144" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C144" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D144" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E144" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B145" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C145" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D145" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E120" s="22" t="s">
+      <c r="E145" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="23" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="24" t="s">
+      <c r="B146" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C146" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="24" t="s">
+      <c r="D146" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="24" t="s">
+      <c r="E146" s="24" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E151" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A80:C80"/>
+  <mergeCells count="15">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A60:C60"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A8:C8"/>
@@ -2599,16 +3082,12 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E55" r:id="rId1" xr:uid="{55A34271-33C8-4C05-936A-5C2924F54CDA}"/>
+    <hyperlink ref="E73" r:id="rId1" xr:uid="{24FA790E-4747-44D7-88C1-AF01938D2448}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>

--- a/capstone_api.xlsx
+++ b/capstone_api.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\capstone\capstone2025_back\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\capstone\capstone2025_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84372208-3BF2-4887-BBFB-481CCE0514A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CA1E19-514E-49E2-AFCF-491921544192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="2820" windowWidth="21675" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="참조" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="149">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,6 +652,42 @@
   </si>
   <si>
     <t>내 장소 고유 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"city"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) API KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/main/apiKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가져올 키 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amadeus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcv123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,21 +1074,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1060,9 +1099,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98929B5-A138-46F3-90E6-09E74B551848}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1432,11 +1468,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
@@ -1507,11 +1543,11 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
@@ -1582,11 +1618,11 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
@@ -1617,7 +1653,7 @@
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1634,7 +1670,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
@@ -1649,7 +1685,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1676,91 +1712,91 @@
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
@@ -1782,754 +1818,739 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="34"/>
+      <c r="B44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E50" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="19" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D51" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E51" s="21">
         <v>5000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D52" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E52" s="21">
         <v>50000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B53" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E53" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="202.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="34"/>
-      <c r="B46" s="7" t="s">
+    <row r="54" spans="1:5" ht="202.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B59" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E59" s="32">
         <v>45798</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="19" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D60" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E60" s="27">
         <v>45802</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="19" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="B61" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D61" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E61" s="21" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
-      <c r="B56" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="19" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="30"/>
+      <c r="B64" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+      <c r="B70" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E70" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="18"/>
+      <c r="B71" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D71" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E71" s="27">
         <v>45795</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B72" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D72" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E72" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="175.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="34"/>
-      <c r="B65" s="7" t="s">
+    <row r="73" spans="1:5" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="30"/>
+      <c r="B73" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="32" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B79" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D79" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E79" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="19" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="25"/>
+      <c r="B80" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D80" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E80" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="19" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="25"/>
+      <c r="B81" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74" s="27">
-        <v>36005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82" s="27">
+        <v>36005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B83" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C83" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D83" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="24" t="s">
+      <c r="E83" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="16"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="23" t="s">
+      <c r="B95" s="10"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="16"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B96" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C96" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D96" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="24" t="s">
+      <c r="E96" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="243" x14ac:dyDescent="0.3">
-      <c r="A95" s="30"/>
-      <c r="B95" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B100" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C100" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="25"/>
-      <c r="B101" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E101" s="21">
-        <v>5</v>
+      <c r="A101" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="23" t="s">
+      <c r="A102" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="24" t="s">
+      <c r="B102" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C102" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D102" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="24" t="s">
+      <c r="E102" s="11" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="103" spans="1:5" ht="243" x14ac:dyDescent="0.3">
+      <c r="A103" s="30"/>
+      <c r="B103" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="B106" s="31"/>
       <c r="C106" s="31"/>
@@ -2555,379 +2576,379 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E108" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="18"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D110" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E109" s="21" t="s">
+      <c r="E110" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="23" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="B111" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C111" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="D111" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="24" t="s">
+      <c r="E111" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="31" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="18"/>
+      <c r="B117" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B122" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E122" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="17" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B123" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C123" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D123" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E115" s="22" t="s">
+      <c r="E123" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="23" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B124" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C124" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="24" t="s">
+      <c r="D124" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="24" t="s">
+      <c r="E124" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="31" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B128" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="13" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="16"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="29" t="s">
+      <c r="B129" s="10"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="16"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B130" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C130" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D130" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E130" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="297" x14ac:dyDescent="0.3">
-      <c r="A123" s="30"/>
-      <c r="B123" s="7" t="s">
+    <row r="131" spans="1:5" ht="297" x14ac:dyDescent="0.3">
+      <c r="A131" s="30"/>
+      <c r="B131" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D131" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E131" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="31" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B135" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E135" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="17" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B136" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C136" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D136" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E128" s="22" t="s">
+      <c r="E136" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="25"/>
-      <c r="B129" s="19" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="25"/>
+      <c r="B137" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="20" t="s">
+      <c r="D137" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E129" s="21">
+      <c r="E137" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="25"/>
-      <c r="B130" s="19" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="25"/>
+      <c r="B138" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="28" t="s">
+      <c r="D138" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E130" s="28">
+      <c r="E138" s="28">
         <v>45797</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="25"/>
-      <c r="B131" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E131" s="28">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="18"/>
-      <c r="B132" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E132" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E138" s="22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="25"/>
       <c r="B139" s="19" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E139" s="21">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E139" s="28">
+        <v>45802</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="25"/>
+      <c r="A140" s="18"/>
       <c r="B140" s="19" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D140" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E140" s="28">
-        <v>45797</v>
+      <c r="D140" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E140" s="20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -2947,147 +2968,249 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="31" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B144" s="31"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="25"/>
+      <c r="B147" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E147" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="25"/>
+      <c r="B148" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="25"/>
+      <c r="B149" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E149" s="28">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B153" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C153" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E153" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="17" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B154" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C154" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D154" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E145" s="22" t="s">
+      <c r="E154" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="23" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B146" s="24" t="s">
+      <c r="B155" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C146" s="24" t="s">
+      <c r="C155" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D146" s="24" t="s">
+      <c r="D155" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E146" s="24" t="s">
+      <c r="E155" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="31" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
+      <c r="B158" s="31"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B159" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C159" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="E159" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="17" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B160" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C160" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D160" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E151" s="22" t="s">
+      <c r="E160" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="23" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B152" s="24" t="s">
+      <c r="B161" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="C161" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D152" s="24" t="s">
+      <c r="D161" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E152" s="24" t="s">
+      <c r="E161" s="24" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A64:A65"/>
+  <mergeCells count="12">
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E73" r:id="rId1" xr:uid="{24FA790E-4747-44D7-88C1-AF01938D2448}"/>
+    <hyperlink ref="E81" r:id="rId1" xr:uid="{24FA790E-4747-44D7-88C1-AF01938D2448}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>
